--- a/1_Verification_Reports/K2_r01_05/EPS1_5C1_20231208_1517_result.xlsx
+++ b/1_Verification_Reports/K2_r01_05/EPS1_5C1_20231208_1517_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\AOP_ML\1_Verification_Reports\K2_r01_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55A4C8A-D835-4AA5-85FD-099DD158F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64847B3C-CAF7-4CE2-B4B9-6EDFE2A215CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intensity" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="43">
   <si>
     <t>Num</t>
   </si>
@@ -137,16 +137,19 @@
     <t>Ambient_Temp_1</t>
   </si>
   <si>
-    <t>RankNo</t>
+    <t>Temp</t>
   </si>
   <si>
-    <t>isDataUsable</t>
+    <t>SSId: 3772  &amp;  S/N: 82960579</t>
   </si>
   <si>
-    <t>IsLatest</t>
+    <t>SSId: 3806 &amp; S/N: 82960559</t>
   </si>
   <si>
-    <t>Temp</t>
+    <t>SSId: 3725 &amp; S/N: 21290187</t>
+  </si>
+  <si>
+    <t>SSId: 3809 &amp; S/N: 82960559</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -300,11 +303,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -325,6 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -663,275 +678,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AD1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>257</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="5">
         <v>11291794</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>15100</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="5">
         <v>2500000</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q3" s="6">
         <v>15222</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R3" s="6">
         <v>25391</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T3" s="6">
         <v>1.3999999761581421</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U3" s="6">
         <v>1.490938782691956</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V3" s="5">
         <v>6.5</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W3" s="5">
         <v>15228</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X3" s="5">
         <v>25405</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z3" s="5">
         <v>298.212890625</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA3" s="5">
         <v>286.52719116210938</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB3" s="7">
         <v>-3.9200000762939449</v>
       </c>
+      <c r="AD3">
+        <v>15222</v>
+      </c>
+      <c r="AE3">
+        <v>26681</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="AH3">
+        <v>1.435052871704102</v>
+      </c>
+      <c r="AI3">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>258</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9">
-        <v>11291794</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>15200</v>
-      </c>
-      <c r="I3" s="9">
-        <v>3333300</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>15226</v>
-      </c>
-      <c r="R3" s="9">
-        <v>25401</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="9">
-        <v>1.257599949836731</v>
-      </c>
-      <c r="U3" s="9">
-        <v>1.334290027618408</v>
-      </c>
-      <c r="V3" s="9">
-        <v>6.0999999046325684</v>
-      </c>
-      <c r="W3" s="9">
-        <v>15232</v>
-      </c>
-      <c r="X3" s="9">
-        <v>25425</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>140.53889465332031</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>141.93255615234381</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.99000000953674316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>259</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>26</v>
@@ -955,7 +949,7 @@
         <v>15200</v>
       </c>
       <c r="I4" s="9">
-        <v>3809500</v>
+        <v>3333300</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -979,45 +973,45 @@
         <v>34</v>
       </c>
       <c r="Q4" s="9">
-        <v>15227</v>
+        <v>15226</v>
       </c>
       <c r="R4" s="9">
-        <v>25402</v>
+        <v>25401</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="T4" s="9">
-        <v>1.019400000572205</v>
+        <v>1.257599949836731</v>
       </c>
       <c r="U4" s="9">
-        <v>1.067829966545105</v>
+        <v>1.334290027618408</v>
       </c>
       <c r="V4" s="9">
-        <v>4.75</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="W4" s="9">
-        <v>15233</v>
+        <v>15232</v>
       </c>
       <c r="X4" s="9">
-        <v>25426</v>
+        <v>25425</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Z4" s="9">
-        <v>92.710899353027344</v>
+        <v>140.53889465332031</v>
       </c>
       <c r="AA4" s="9">
-        <v>83.535186767578125</v>
+        <v>141.93255615234381</v>
       </c>
       <c r="AB4" s="10">
-        <v>-9.8999996185302734</v>
+        <v>0.99000000953674316</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>26</v>
@@ -1038,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>15101</v>
+        <v>15200</v>
       </c>
       <c r="I5" s="9">
-        <v>1538500</v>
+        <v>3809500</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
@@ -1053,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="M5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -1065,45 +1059,45 @@
         <v>34</v>
       </c>
       <c r="Q5" s="9">
-        <v>15223</v>
+        <v>15227</v>
       </c>
       <c r="R5" s="9">
-        <v>25394</v>
+        <v>25402</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="T5" s="9">
-        <v>1.3999999761581421</v>
+        <v>1.019400000572205</v>
       </c>
       <c r="U5" s="9">
-        <v>1.407061696052551</v>
+        <v>1.067829966545105</v>
       </c>
       <c r="V5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="11">
-        <v>15229</v>
-      </c>
-      <c r="X5" s="11">
-        <v>25408</v>
-      </c>
-      <c r="Y5" s="11" t="s">
+        <v>4.75</v>
+      </c>
+      <c r="W5" s="9">
+        <v>15233</v>
+      </c>
+      <c r="X5" s="9">
+        <v>25426</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="11">
-        <v>226.36970520019531</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>308.40194702148438</v>
+      <c r="Z5" s="9">
+        <v>92.710899353027344</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>83.535186767578125</v>
       </c>
       <c r="AB5" s="10">
-        <v>36.240001678466797</v>
+        <v>-9.8999996185302734</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>26</v>
@@ -1127,7 +1121,7 @@
         <v>15101</v>
       </c>
       <c r="I6" s="9">
-        <v>1818200</v>
+        <v>1538500</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -1151,10 +1145,10 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9">
-        <v>15224</v>
+        <v>15223</v>
       </c>
       <c r="R6" s="9">
-        <v>25397</v>
+        <v>25394</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>35</v>
@@ -1163,205 +1157,223 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="U6" s="9">
+        <v>1.407061696052551</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="11">
+        <v>15229</v>
+      </c>
+      <c r="X6" s="11">
+        <v>25408</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>226.36970520019531</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>308.40194702148438</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>36.240001678466797</v>
+      </c>
+      <c r="AD6">
+        <v>15229</v>
+      </c>
+      <c r="AE6">
+        <v>26682</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG6">
+        <v>226.36970520019531</v>
+      </c>
+      <c r="AH6">
+        <v>266.27862548828119</v>
+      </c>
+      <c r="AI6">
+        <v>17.629999160766602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>261</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <v>11291794</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>15101</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1818200</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>15224</v>
+      </c>
+      <c r="R7" s="9">
+        <v>25397</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="U7" s="9">
         <v>1.4857442378997801</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V7" s="9">
         <v>6.119999885559082</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W7" s="9">
         <v>15230</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X7" s="9">
         <v>25411</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z7" s="9">
         <v>290.03170776367188</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA7" s="9">
         <v>296.32974243164063</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB7" s="10">
         <v>2.1700000762939449</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>262</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="13">
         <v>11291794</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <v>15101</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>2222200</v>
       </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="13">
         <v>1</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13" t="s">
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q8" s="13">
         <v>15225</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R8" s="13">
         <v>25400</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T8" s="13">
         <v>1.3999999761581421</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U8" s="13">
         <v>1.3470693826675419</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V8" s="13">
         <v>-3.779999971389771</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W8" s="13">
         <v>15231</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X8" s="13">
         <v>25463</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z8" s="13">
         <v>288.97689819335938</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA8" s="13">
         <v>259.33807373046881</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB8" s="14">
         <v>-10.260000228881839</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>11291794</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>2000000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8">
-        <v>15235</v>
-      </c>
-      <c r="R8">
-        <v>25430</v>
-      </c>
-      <c r="S8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="U8">
-        <v>1.428788900375366</v>
-      </c>
-      <c r="V8">
-        <v>2.059999942779541</v>
-      </c>
-      <c r="W8" s="2">
-        <v>15249</v>
-      </c>
-      <c r="X8" s="2">
-        <v>25456</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>300.2410888671875</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>323.87496948242188</v>
-      </c>
-      <c r="AB8">
-        <v>7.869999885559082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1385,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>2666700</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1408,46 +1420,64 @@
       <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="2">
-        <v>15237</v>
-      </c>
-      <c r="R9" s="2">
-        <v>25434</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="Q9">
+        <v>15235</v>
+      </c>
+      <c r="R9">
+        <v>25430</v>
+      </c>
+      <c r="S9" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9">
         <v>1.3999999761581421</v>
       </c>
-      <c r="U9" s="2">
-        <v>1.478250980377197</v>
+      <c r="U9">
+        <v>1.428788900375366</v>
       </c>
       <c r="V9">
-        <v>5.5900001525878906</v>
-      </c>
-      <c r="W9">
-        <v>15251</v>
-      </c>
-      <c r="X9">
-        <v>25462</v>
-      </c>
-      <c r="Y9" t="s">
+        <v>2.059999942779541</v>
+      </c>
+      <c r="W9" s="2">
+        <v>15249</v>
+      </c>
+      <c r="X9" s="2">
+        <v>25456</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z9">
-        <v>253.45880126953119</v>
-      </c>
-      <c r="AA9">
-        <v>271.28802490234381</v>
+      <c r="Z9" s="2">
+        <v>300.2410888671875</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>323.87496948242188</v>
       </c>
       <c r="AB9">
-        <v>7.0300002098083496</v>
+        <v>7.869999885559082</v>
+      </c>
+      <c r="AD9">
+        <v>15249</v>
+      </c>
+      <c r="AE9">
+        <v>26686</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9">
+        <v>300.2410888671875</v>
+      </c>
+      <c r="AH9">
+        <v>289.88320922851563</v>
+      </c>
+      <c r="AI9">
+        <v>-3.4500000476837158</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1471,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>3333300</v>
+        <v>2666700</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1494,46 +1524,64 @@
       <c r="P10" t="s">
         <v>34</v>
       </c>
-      <c r="Q10">
-        <v>15239</v>
-      </c>
-      <c r="R10">
-        <v>25436</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="Q10" s="2">
+        <v>15237</v>
+      </c>
+      <c r="R10" s="2">
+        <v>25434</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T10">
-        <v>1.3421000242233281</v>
-      </c>
-      <c r="U10">
-        <v>1.25111997127533</v>
+      <c r="T10" s="2">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1.478250980377197</v>
       </c>
       <c r="V10">
-        <v>-6.7800002098083496</v>
+        <v>5.5900001525878906</v>
       </c>
       <c r="W10">
-        <v>15253</v>
+        <v>15251</v>
       </c>
       <c r="X10">
-        <v>25467</v>
+        <v>25462</v>
       </c>
       <c r="Y10" t="s">
         <v>36</v>
       </c>
       <c r="Z10">
-        <v>147.06230163574219</v>
+        <v>253.45880126953119</v>
       </c>
       <c r="AA10">
-        <v>164.3043518066406</v>
+        <v>271.28802490234381</v>
       </c>
       <c r="AB10">
-        <v>11.72000026702881</v>
+        <v>7.0300002098083496</v>
+      </c>
+      <c r="AD10">
+        <v>15237</v>
+      </c>
+      <c r="AE10">
+        <v>26684</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="AH10">
+        <v>1.3892587423324581</v>
+      </c>
+      <c r="AI10">
+        <v>-0.76999998092651367</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1557,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>4000000</v>
+        <v>3333300</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1581,217 +1629,217 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>15241</v>
+        <v>15239</v>
       </c>
       <c r="R11">
-        <v>25440</v>
+        <v>25436</v>
       </c>
       <c r="S11" t="s">
         <v>35</v>
       </c>
       <c r="T11">
-        <v>0.98619997501373291</v>
+        <v>1.3421000242233281</v>
       </c>
       <c r="U11">
-        <v>0.95395100116729736</v>
+        <v>1.25111997127533</v>
       </c>
       <c r="V11">
-        <v>-3.2699999809265141</v>
+        <v>-6.7800002098083496</v>
       </c>
       <c r="W11">
-        <v>15255</v>
+        <v>15253</v>
       </c>
       <c r="X11">
-        <v>25471</v>
+        <v>25467</v>
       </c>
       <c r="Y11" t="s">
         <v>36</v>
       </c>
       <c r="Z11">
+        <v>147.06230163574219</v>
+      </c>
+      <c r="AA11">
+        <v>164.3043518066406</v>
+      </c>
+      <c r="AB11">
+        <v>11.72000026702881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>11291794</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4000000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12">
+        <v>15241</v>
+      </c>
+      <c r="R12">
+        <v>25440</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12">
+        <v>0.98619997501373291</v>
+      </c>
+      <c r="U12">
+        <v>0.95395100116729736</v>
+      </c>
+      <c r="V12">
+        <v>-3.2699999809265141</v>
+      </c>
+      <c r="W12">
+        <v>15255</v>
+      </c>
+      <c r="X12">
+        <v>25471</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12">
         <v>67.646499633789063</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>83.742851257324219</v>
       </c>
-      <c r="AB11">
+      <c r="AB12">
         <v>23.79000091552734</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>267</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>11291794</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <v>2000000</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>4</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="5">
         <v>4</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M13" s="5">
         <v>2</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5" t="s">
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q13" s="5">
         <v>15260</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R13" s="5">
         <v>25476</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T13" s="5">
         <v>0.50760000944137573</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U13" s="5">
         <v>0.53433704376220703</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V13" s="5">
         <v>5.2699999809265137</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W13" s="5">
         <v>15260</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X13" s="5">
         <v>25476</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z13" s="5">
         <v>400.00021362304688</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA13" s="5">
         <v>437.78213500976563</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB13" s="7">
         <v>9.4499998092651367</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>268</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9">
-        <v>11291794</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>10</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2666700</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>4</v>
-      </c>
-      <c r="L13" s="9">
-        <v>4</v>
-      </c>
-      <c r="M13" s="9">
-        <v>2</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>15261</v>
-      </c>
-      <c r="R13" s="9">
-        <v>25477</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0.51330000162124634</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0.55777031183242798</v>
-      </c>
-      <c r="V13" s="9">
-        <v>8.6599998474121094</v>
-      </c>
-      <c r="W13" s="9">
-        <v>15261</v>
-      </c>
-      <c r="X13" s="9">
-        <v>25477</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>400.00009155273438</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>452.25592041015619</v>
-      </c>
-      <c r="AB13" s="10">
-        <v>13.060000419616699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>269</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -1815,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="9">
-        <v>3333300</v>
+        <v>2666700</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -1838,218 +1886,254 @@
       <c r="P14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="11">
-        <v>15262</v>
-      </c>
-      <c r="R14" s="11">
-        <v>25478</v>
-      </c>
-      <c r="S14" s="11" t="s">
+      <c r="Q14" s="9">
+        <v>15261</v>
+      </c>
+      <c r="R14" s="9">
+        <v>25477</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="11">
-        <v>0.53420001268386841</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0.56401580572128296</v>
+      <c r="T14" s="9">
+        <v>0.51330000162124634</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0.55777031183242798</v>
       </c>
       <c r="V14" s="9">
-        <v>5.5799999237060547</v>
+        <v>8.6599998474121094</v>
       </c>
       <c r="W14" s="9">
-        <v>15266</v>
+        <v>15261</v>
       </c>
       <c r="X14" s="9">
-        <v>25482</v>
+        <v>25477</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Z14" s="9">
+        <v>400.00009155273438</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>452.25592041015619</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>13.060000419616699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>269</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11291794</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3333300</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>15262</v>
+      </c>
+      <c r="R15" s="11">
+        <v>25478</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0.53420001268386841</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0.56401580572128296</v>
+      </c>
+      <c r="V15" s="9">
+        <v>5.5799999237060547</v>
+      </c>
+      <c r="W15" s="9">
+        <v>15266</v>
+      </c>
+      <c r="X15" s="9">
+        <v>25482</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="9">
         <v>400.00030517578119</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA15" s="9">
         <v>475.16168212890619</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB15" s="10">
         <v>18.79000091552734</v>
       </c>
+      <c r="AD15">
+        <v>15262</v>
+      </c>
+      <c r="AE15">
+        <v>26687</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG15">
+        <v>0.53420001268386841</v>
+      </c>
+      <c r="AH15">
+        <v>0.5868033766746521</v>
+      </c>
+      <c r="AI15">
+        <v>9.8500003814697266</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>270</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="13">
         <v>11291794</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <v>10</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>4000000</v>
       </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
         <v>4</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>4</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M16" s="13">
         <v>2</v>
       </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13" t="s">
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q16" s="13">
         <v>15263</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R16" s="13">
         <v>25479</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T16" s="13">
         <v>0.51370000839233398</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U16" s="13">
         <v>0.52343231439590454</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V16" s="13">
         <v>1.889999985694885</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W16" s="15">
         <v>15263</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X16" s="15">
         <v>25479</v>
       </c>
-      <c r="Y15" s="15" t="s">
+      <c r="Y16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="Z16" s="15">
         <v>399.99960327148438</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA16" s="15">
         <v>530.4854736328125</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB16" s="14">
         <v>32.619998931884773</v>
       </c>
+      <c r="AD16">
+        <v>15263</v>
+      </c>
+      <c r="AE16">
+        <v>26688</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG16">
+        <v>399.99960327148438</v>
+      </c>
+      <c r="AH16">
+        <v>518.21343994140625</v>
+      </c>
+      <c r="AI16">
+        <v>29.54999923706055</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>271</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>11291794</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15109</v>
-      </c>
-      <c r="I16">
-        <v>2500000</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1.5</v>
-      </c>
-      <c r="L16">
-        <v>1.5</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16">
-        <v>16016</v>
-      </c>
-      <c r="R16">
-        <v>26202</v>
-      </c>
-      <c r="S16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="U16">
-        <v>1.5157579183578489</v>
-      </c>
-      <c r="V16">
-        <v>8.2700004577636719</v>
-      </c>
-      <c r="W16">
-        <v>16016</v>
-      </c>
-      <c r="X16">
-        <v>26202</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z16">
-        <v>152.5050964355469</v>
-      </c>
-      <c r="AA16">
-        <v>175.58695983886719</v>
-      </c>
-      <c r="AB16">
-        <v>15.14000034332275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2070,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15209</v>
+        <v>15109</v>
       </c>
       <c r="I17">
-        <v>3333300</v>
+        <v>2500000</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2085,7 +2169,7 @@
         <v>1.5</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2097,45 +2181,45 @@
         <v>34</v>
       </c>
       <c r="Q17">
-        <v>16011</v>
+        <v>16016</v>
       </c>
       <c r="R17">
-        <v>26197</v>
+        <v>26202</v>
       </c>
       <c r="S17" t="s">
         <v>35</v>
       </c>
       <c r="T17">
-        <v>1.257599949836731</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="U17">
-        <v>1.345299959182739</v>
+        <v>1.5157579183578489</v>
       </c>
       <c r="V17">
-        <v>6.9699997901916504</v>
+        <v>8.2700004577636719</v>
       </c>
       <c r="W17">
-        <v>16011</v>
+        <v>16016</v>
       </c>
       <c r="X17">
-        <v>26197</v>
+        <v>26202</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
       </c>
       <c r="Z17">
-        <v>98.720199584960938</v>
+        <v>152.5050964355469</v>
       </c>
       <c r="AA17">
-        <v>103.16160583496089</v>
+        <v>175.58695983886719</v>
       </c>
       <c r="AB17">
-        <v>4.5</v>
+        <v>15.14000034332275</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2159,7 +2243,7 @@
         <v>15209</v>
       </c>
       <c r="I18">
-        <v>3809500</v>
+        <v>3333300</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2183,45 +2267,45 @@
         <v>34</v>
       </c>
       <c r="Q18">
-        <v>16012</v>
+        <v>16011</v>
       </c>
       <c r="R18">
-        <v>26198</v>
+        <v>26197</v>
       </c>
       <c r="S18" t="s">
         <v>35</v>
       </c>
       <c r="T18">
-        <v>1.019400000572205</v>
+        <v>1.257599949836731</v>
       </c>
       <c r="U18">
-        <v>0.95090901851654053</v>
+        <v>1.345299959182739</v>
       </c>
       <c r="V18">
-        <v>-6.7199997901916504</v>
+        <v>6.9699997901916504</v>
       </c>
       <c r="W18">
-        <v>16012</v>
+        <v>16011</v>
       </c>
       <c r="X18">
-        <v>26198</v>
+        <v>26197</v>
       </c>
       <c r="Y18" t="s">
         <v>36</v>
       </c>
       <c r="Z18">
-        <v>65.198196411132813</v>
+        <v>98.720199584960938</v>
       </c>
       <c r="AA18">
-        <v>59.514549255371087</v>
+        <v>103.16160583496089</v>
       </c>
       <c r="AB18">
-        <v>-8.7200002670288086</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2236,16 +2320,16 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15109</v>
+        <v>15209</v>
       </c>
       <c r="I19">
-        <v>1538500</v>
+        <v>3809500</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2257,7 +2341,7 @@
         <v>1.5</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2269,45 +2353,45 @@
         <v>34</v>
       </c>
       <c r="Q19">
-        <v>16013</v>
+        <v>16012</v>
       </c>
       <c r="R19">
-        <v>26199</v>
+        <v>26198</v>
       </c>
       <c r="S19" t="s">
         <v>35</v>
       </c>
       <c r="T19">
-        <v>1.3999999761581421</v>
+        <v>1.019400000572205</v>
       </c>
       <c r="U19">
-        <v>1.5410019159317021</v>
+        <v>0.95090901851654053</v>
       </c>
       <c r="V19">
-        <v>10.069999694824221</v>
+        <v>-6.7199997901916504</v>
       </c>
       <c r="W19">
-        <v>16013</v>
+        <v>16012</v>
       </c>
       <c r="X19">
-        <v>26199</v>
+        <v>26198</v>
       </c>
       <c r="Y19" t="s">
         <v>36</v>
       </c>
       <c r="Z19">
-        <v>269.01260375976563</v>
+        <v>65.198196411132813</v>
       </c>
       <c r="AA19">
-        <v>317.03915405273438</v>
+        <v>59.514549255371087</v>
       </c>
       <c r="AB19">
-        <v>17.85000038146973</v>
+        <v>-8.7200002670288086</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2331,7 +2415,7 @@
         <v>15109</v>
       </c>
       <c r="I20">
-        <v>1818200</v>
+        <v>1538500</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2355,10 +2439,10 @@
         <v>34</v>
       </c>
       <c r="Q20">
-        <v>16014</v>
+        <v>16013</v>
       </c>
       <c r="R20">
-        <v>26200</v>
+        <v>26199</v>
       </c>
       <c r="S20" t="s">
         <v>35</v>
@@ -2367,33 +2451,33 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="U20">
-        <v>1.5571837425231929</v>
+        <v>1.5410019159317021</v>
       </c>
       <c r="V20">
-        <v>11.22999954223633</v>
-      </c>
-      <c r="W20" s="2">
-        <v>16014</v>
-      </c>
-      <c r="X20" s="2">
-        <v>26200</v>
-      </c>
-      <c r="Y20" s="2" t="s">
+        <v>10.069999694824221</v>
+      </c>
+      <c r="W20">
+        <v>16013</v>
+      </c>
+      <c r="X20">
+        <v>26199</v>
+      </c>
+      <c r="Y20" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" s="2">
-        <v>347.67779541015619</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>412.91973876953119</v>
+      <c r="Z20">
+        <v>269.01260375976563</v>
+      </c>
+      <c r="AA20">
+        <v>317.03915405273438</v>
       </c>
       <c r="AB20">
-        <v>18.770000457763668</v>
+        <v>17.85000038146973</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2417,7 +2501,7 @@
         <v>15109</v>
       </c>
       <c r="I21">
-        <v>2222200</v>
+        <v>1818200</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2440,690 +2524,746 @@
       <c r="P21" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21">
+        <v>16014</v>
+      </c>
+      <c r="R21">
+        <v>26200</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="U21">
+        <v>1.5571837425231929</v>
+      </c>
+      <c r="V21">
+        <v>11.22999954223633</v>
+      </c>
+      <c r="W21" s="2">
+        <v>16014</v>
+      </c>
+      <c r="X21" s="2">
+        <v>26200</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>347.67779541015619</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>412.91973876953119</v>
+      </c>
+      <c r="AB21">
+        <v>18.770000457763668</v>
+      </c>
+      <c r="AD21">
+        <v>16014</v>
+      </c>
+      <c r="AE21">
+        <v>26690</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG21">
+        <v>347.67779541015619</v>
+      </c>
+      <c r="AH21">
+        <v>361.6744384765625</v>
+      </c>
+      <c r="AI21">
+        <v>4.0300002098083496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>11291794</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>15109</v>
+      </c>
+      <c r="I22">
+        <v>2222200</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1.5</v>
+      </c>
+      <c r="L22">
+        <v>1.5</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="2">
         <v>16015</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R22" s="2">
         <v>26201</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T22" s="2">
         <v>1.3999999761581421</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U22" s="2">
         <v>1.626569271087646</v>
       </c>
-      <c r="V21">
+      <c r="V22">
         <v>16.180000305175781</v>
       </c>
-      <c r="W21">
+      <c r="W22">
         <v>16015</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>26201</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y22" t="s">
         <v>36</v>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <v>365.15008544921881</v>
       </c>
-      <c r="AA21">
+      <c r="AA22">
         <v>351.50848388671881</v>
       </c>
-      <c r="AB21">
+      <c r="AB22">
         <v>-3.7400000095367432</v>
+      </c>
+      <c r="AD22">
+        <v>16015</v>
+      </c>
+      <c r="AE22">
+        <v>26689</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG22">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="AH22">
+        <v>1.4696922302246089</v>
+      </c>
+      <c r="AI22">
+        <v>4.9800000190734863</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="AD1:AI1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>257</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>11291794</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>15100</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>11875</v>
+      </c>
+      <c r="R3" s="5">
+        <v>22212</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="5">
+        <v>16</v>
+      </c>
+      <c r="U3" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="V3" s="5">
+        <v>3.130000114440918</v>
+      </c>
+      <c r="W3" s="5">
+        <v>24.10000038146973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>258</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11291794</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>15200</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3333300</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>11883</v>
+      </c>
+      <c r="R4" s="9">
+        <v>22229</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="9">
+        <v>16</v>
+      </c>
+      <c r="U4" s="9">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-0.62999999523162842</v>
+      </c>
+      <c r="W4" s="9">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>259</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11291794</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>15200</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3809500</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>11870</v>
+      </c>
+      <c r="R5" s="9">
+        <v>22202</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
+      <c r="T5" s="9">
+        <v>16</v>
+      </c>
+      <c r="U5" s="9">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="W5" s="9">
+        <v>23.89999961853027</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>260</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
+      <c r="C6" s="9">
         <v>11291794</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>15100</v>
-      </c>
-      <c r="I2">
-        <v>2500000</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1.5</v>
-      </c>
-      <c r="L2">
-        <v>1.5</v>
-      </c>
-      <c r="M2">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>15101</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1538500</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="9">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2">
-        <v>11875</v>
-      </c>
-      <c r="R2">
-        <v>22212</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2">
+      <c r="Q6" s="9">
+        <v>11880</v>
+      </c>
+      <c r="R6" s="9">
+        <v>22223</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="9">
         <v>16</v>
       </c>
-      <c r="U2">
+      <c r="U6" s="9">
         <v>16.5</v>
       </c>
-      <c r="V2">
+      <c r="V6" s="9">
         <v>3.130000114440918</v>
       </c>
-      <c r="W2">
-        <v>24.10000038146973</v>
-      </c>
-      <c r="AB2">
+      <c r="W6" s="9">
+        <v>23.79999923706055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>261</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <v>11291794</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>15101</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1818200</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="9">
         <v>1</v>
       </c>
-      <c r="AD2" t="b">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>11863</v>
+      </c>
+      <c r="R7" s="9">
+        <v>22187</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="9">
+        <v>16</v>
+      </c>
+      <c r="U7" s="9">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="V7" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="W7" s="9">
+        <v>23.89999961853027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>262</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13">
+        <v>11291794</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>15101</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2222200</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="13">
         <v>1</v>
       </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>11865</v>
+      </c>
+      <c r="R8" s="15">
+        <v>22191</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="15">
+        <v>16</v>
+      </c>
+      <c r="U8" s="15">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="V8" s="15">
+        <v>5.619999885559082</v>
+      </c>
+      <c r="W8" s="15">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="Y8">
+        <v>11865</v>
+      </c>
+      <c r="Z8">
+        <v>26759</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8">
+        <v>16</v>
+      </c>
+      <c r="AC8">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="AD8">
+        <v>-1.25</v>
+      </c>
+      <c r="AE8">
+        <v>23.79999923706055</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>11291794</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>15200</v>
-      </c>
-      <c r="I3">
-        <v>3333300</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
-        <v>1.5</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3">
-        <v>11883</v>
-      </c>
-      <c r="R3">
-        <v>22229</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3">
-        <v>16</v>
-      </c>
-      <c r="U3">
-        <v>15.89999961853027</v>
-      </c>
-      <c r="V3">
-        <v>-0.62999999523162842</v>
-      </c>
-      <c r="W3">
-        <v>24</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>11291794</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>15200</v>
-      </c>
-      <c r="I4">
-        <v>3809500</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1.5</v>
-      </c>
-      <c r="L4">
-        <v>1.5</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4">
-        <v>11870</v>
-      </c>
-      <c r="R4">
-        <v>22202</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4">
-        <v>16.39999961853027</v>
-      </c>
-      <c r="V4">
-        <v>2.5</v>
-      </c>
-      <c r="W4">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>260</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>11291794</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15101</v>
-      </c>
-      <c r="I5">
-        <v>1538500</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1.5</v>
-      </c>
-      <c r="L5">
-        <v>1.5</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5">
-        <v>11880</v>
-      </c>
-      <c r="R5">
-        <v>22223</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5">
-        <v>16</v>
-      </c>
-      <c r="U5">
-        <v>16.5</v>
-      </c>
-      <c r="V5">
-        <v>3.130000114440918</v>
-      </c>
-      <c r="W5">
-        <v>23.79999923706055</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>11291794</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>15101</v>
-      </c>
-      <c r="I6">
-        <v>1818200</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1.5</v>
-      </c>
-      <c r="L6">
-        <v>1.5</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6">
-        <v>11863</v>
-      </c>
-      <c r="R6">
-        <v>22187</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6">
-        <v>16</v>
-      </c>
-      <c r="U6">
-        <v>16.60000038146973</v>
-      </c>
-      <c r="V6">
-        <v>3.75</v>
-      </c>
-      <c r="W6">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>11291794</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>15101</v>
-      </c>
-      <c r="I7">
-        <v>2222200</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1.5</v>
-      </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7">
-        <v>11865</v>
-      </c>
-      <c r="R7">
-        <v>22191</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7">
-        <v>16</v>
-      </c>
-      <c r="U7">
-        <v>16.89999961853027</v>
-      </c>
-      <c r="V7">
-        <v>5.619999885559082</v>
-      </c>
-      <c r="W7">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>11291794</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>2000000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8">
-        <v>11901</v>
-      </c>
-      <c r="R8">
-        <v>22267</v>
-      </c>
-      <c r="S8" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8">
-        <v>16</v>
-      </c>
-      <c r="U8">
-        <v>14.80000019073486</v>
-      </c>
-      <c r="V8">
-        <v>-7.5</v>
-      </c>
-      <c r="W8">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3147,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>2666700</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3170,37 +3310,52 @@
       <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9">
-        <v>11911</v>
-      </c>
-      <c r="R9">
-        <v>22288</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9">
+      <c r="Q9" s="2">
+        <v>11901</v>
+      </c>
+      <c r="R9" s="2">
+        <v>22267</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="2">
         <v>16</v>
       </c>
-      <c r="U9">
-        <v>14.39999961853027</v>
-      </c>
-      <c r="V9">
-        <v>-10</v>
-      </c>
-      <c r="W9">
-        <v>24</v>
+      <c r="U9" s="2">
+        <v>14.80000019073486</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="W9" s="2">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="Y9">
+        <v>11901</v>
+      </c>
+      <c r="Z9">
+        <v>26761</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
       </c>
       <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="AC9">
+        <v>14.80000019073486</v>
+      </c>
+      <c r="AD9">
+        <v>-7.5</v>
+      </c>
+      <c r="AE9">
+        <v>23.39999961853027</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3224,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>3333300</v>
+        <v>2666700</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3248,36 +3403,30 @@
         <v>34</v>
       </c>
       <c r="Q10">
-        <v>11905</v>
+        <v>11911</v>
       </c>
       <c r="R10">
-        <v>22277</v>
+        <v>22288</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T10">
         <v>16</v>
       </c>
       <c r="U10">
-        <v>14.30000019073486</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="V10">
-        <v>-10.61999988555908</v>
+        <v>-10</v>
       </c>
       <c r="W10">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3301,7 +3450,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>4000000</v>
+        <v>3333300</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3325,36 +3474,30 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>11893</v>
+        <v>11905</v>
       </c>
       <c r="R11">
-        <v>22251</v>
+        <v>22277</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T11">
         <v>16</v>
       </c>
       <c r="U11">
-        <v>13.89999961853027</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="V11">
-        <v>-13.13000011444092</v>
+        <v>-10.61999988555908</v>
       </c>
       <c r="W11">
-        <v>24</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>1</v>
+        <v>23.89999961853027</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3369,16 +3512,16 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3402,344 +3545,335 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>11936</v>
+        <v>11893</v>
       </c>
       <c r="R12">
-        <v>22330</v>
+        <v>22251</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T12">
         <v>16</v>
       </c>
       <c r="U12">
-        <v>13.10000038146973</v>
+        <v>13.89999961853027</v>
       </c>
       <c r="V12">
-        <v>-18.120000839233398</v>
+        <v>-13.13000011444092</v>
       </c>
       <c r="W12">
         <v>24</v>
       </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>267</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11291794</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>11936</v>
+      </c>
+      <c r="R13" s="5">
+        <v>22330</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="5">
+        <v>16</v>
+      </c>
+      <c r="U13" s="5">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="V13" s="5">
+        <v>-18.120000839233398</v>
+      </c>
+      <c r="W13" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>268</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="9">
         <v>11291794</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="9">
         <v>2666700</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L13">
+      <c r="L14" s="9">
         <v>4</v>
       </c>
-      <c r="M13">
+      <c r="M14" s="9">
         <v>2</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q13">
+      <c r="Q14" s="9">
         <v>11924</v>
       </c>
-      <c r="R13">
+      <c r="R14" s="9">
         <v>22310</v>
       </c>
-      <c r="S13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13">
+      <c r="S14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="9">
         <v>16</v>
       </c>
-      <c r="U13">
+      <c r="U14" s="9">
         <v>12.60000038146973</v>
       </c>
-      <c r="V13">
+      <c r="V14" s="9">
         <v>-21.25</v>
       </c>
-      <c r="W13">
+      <c r="W14" s="9">
         <v>24.10000038146973</v>
       </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>269</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="9">
         <v>11291794</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="9">
         <v>3333300</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
         <v>4</v>
       </c>
-      <c r="L14">
+      <c r="L15" s="9">
         <v>4</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="9">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q14">
+      <c r="Q15" s="9">
         <v>11928</v>
       </c>
-      <c r="R14">
+      <c r="R15" s="9">
         <v>22319</v>
       </c>
-      <c r="S14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14">
+      <c r="S15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="9">
         <v>16</v>
       </c>
-      <c r="U14">
+      <c r="U15" s="9">
         <v>12.89999961853027</v>
       </c>
-      <c r="V14">
+      <c r="V15" s="9">
         <v>-19.379999160766602</v>
       </c>
-      <c r="W14">
+      <c r="W15" s="9">
         <v>24</v>
       </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>270</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="13">
         <v>11291794</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="13">
         <v>4000000</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
         <v>4</v>
       </c>
-      <c r="L15">
+      <c r="L16" s="13">
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="M16" s="13">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q15">
+      <c r="Q16" s="15">
         <v>11942</v>
       </c>
-      <c r="R15">
+      <c r="R16" s="15">
         <v>22336</v>
       </c>
-      <c r="S15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15">
+      <c r="S16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="15">
         <v>16</v>
       </c>
-      <c r="U15">
+      <c r="U16" s="15">
         <v>13.60000038146973</v>
       </c>
-      <c r="V15">
+      <c r="V16" s="15">
         <v>-15</v>
       </c>
-      <c r="W15">
+      <c r="W16" s="15">
         <v>24.10000038146973</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>1</v>
+      <c r="Y16">
+        <v>11942</v>
+      </c>
+      <c r="Z16">
+        <v>26762</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16">
+        <v>16</v>
+      </c>
+      <c r="AC16">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="AD16">
+        <v>-18.120000839233398</v>
+      </c>
+      <c r="AE16">
+        <v>23.20000076293945</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>271</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>11291794</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>15109</v>
-      </c>
-      <c r="I16">
-        <v>2500000</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1.5</v>
-      </c>
-      <c r="L16">
-        <v>1.5</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16">
-        <v>11946</v>
-      </c>
-      <c r="R16">
-        <v>22340</v>
-      </c>
-      <c r="S16" t="s">
-        <v>41</v>
-      </c>
-      <c r="T16">
-        <v>9.9700002670288086</v>
-      </c>
-      <c r="U16">
-        <v>9.3999996185302734</v>
-      </c>
-      <c r="V16">
-        <v>-5.7199997901916504</v>
-      </c>
-      <c r="W16">
-        <v>24.10000038146973</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3760,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15209</v>
+        <v>15109</v>
       </c>
       <c r="I17">
-        <v>3333300</v>
+        <v>2500000</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3775,7 +3909,7 @@
         <v>1.5</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3787,36 +3921,30 @@
         <v>34</v>
       </c>
       <c r="Q17">
-        <v>11947</v>
+        <v>11946</v>
       </c>
       <c r="R17">
-        <v>22341</v>
+        <v>22340</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T17">
-        <v>7.0949997901916504</v>
+        <v>9.9700002670288086</v>
       </c>
       <c r="U17">
-        <v>7.1999998092651367</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="V17">
-        <v>1.4800000190734861</v>
+        <v>-5.7199997901916504</v>
       </c>
       <c r="W17">
-        <v>24</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="b">
-        <v>1</v>
+        <v>24.10000038146973</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3840,7 +3968,7 @@
         <v>15209</v>
       </c>
       <c r="I18">
-        <v>3809500</v>
+        <v>3333300</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3864,36 +3992,30 @@
         <v>34</v>
       </c>
       <c r="Q18">
-        <v>11948</v>
+        <v>11947</v>
       </c>
       <c r="R18">
-        <v>22342</v>
+        <v>22341</v>
       </c>
       <c r="S18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T18">
-        <v>4.5949997901916504</v>
+        <v>7.0949997901916504</v>
       </c>
       <c r="U18">
-        <v>4.6999998092651367</v>
+        <v>7.1999998092651367</v>
       </c>
       <c r="V18">
-        <v>2.2899999618530269</v>
+        <v>1.4800000190734861</v>
       </c>
       <c r="W18">
-        <v>24.20000076293945</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3908,16 +4030,16 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15109</v>
+        <v>15209</v>
       </c>
       <c r="I19">
-        <v>1538500</v>
+        <v>3809500</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3929,7 +4051,7 @@
         <v>1.5</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3941,36 +4063,30 @@
         <v>34</v>
       </c>
       <c r="Q19">
-        <v>11943</v>
+        <v>11948</v>
       </c>
       <c r="R19">
-        <v>22337</v>
+        <v>22342</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T19">
-        <v>16</v>
+        <v>4.5949997901916504</v>
       </c>
       <c r="U19">
-        <v>15.80000019073486</v>
+        <v>4.6999998092651367</v>
       </c>
       <c r="V19">
-        <v>-1.25</v>
+        <v>2.2899999618530269</v>
       </c>
       <c r="W19">
-        <v>24</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="b">
-        <v>1</v>
+        <v>24.20000076293945</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3994,7 +4110,7 @@
         <v>15109</v>
       </c>
       <c r="I20">
-        <v>1818200</v>
+        <v>1538500</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4017,37 +4133,52 @@
       <c r="P20" t="s">
         <v>34</v>
       </c>
-      <c r="Q20">
-        <v>11944</v>
-      </c>
-      <c r="R20">
-        <v>22338</v>
-      </c>
-      <c r="S20" t="s">
-        <v>41</v>
-      </c>
-      <c r="T20">
+      <c r="Q20" s="2">
+        <v>11943</v>
+      </c>
+      <c r="R20" s="2">
+        <v>22337</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="2">
         <v>16</v>
       </c>
-      <c r="U20">
-        <v>15.19999980926514</v>
-      </c>
-      <c r="V20">
-        <v>-5</v>
-      </c>
-      <c r="W20">
+      <c r="U20" s="2">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="V20" s="2">
+        <v>-1.25</v>
+      </c>
+      <c r="W20" s="2">
         <v>24</v>
       </c>
+      <c r="Y20">
+        <v>11943</v>
+      </c>
+      <c r="Z20">
+        <v>26763</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>38</v>
+      </c>
       <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="AC20">
+        <v>15.5</v>
+      </c>
+      <c r="AD20">
+        <v>-3.130000114440918</v>
+      </c>
+      <c r="AE20">
+        <v>23.10000038146973</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -4071,7 +4202,7 @@
         <v>15109</v>
       </c>
       <c r="I21">
-        <v>2222200</v>
+        <v>1818200</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4095,34 +4226,103 @@
         <v>34</v>
       </c>
       <c r="Q21">
-        <v>11945</v>
+        <v>11944</v>
       </c>
       <c r="R21">
-        <v>22339</v>
+        <v>22338</v>
       </c>
       <c r="S21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T21">
         <v>16</v>
       </c>
       <c r="U21">
+        <v>15.19999980926514</v>
+      </c>
+      <c r="V21">
+        <v>-5</v>
+      </c>
+      <c r="W21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>11291794</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>15109</v>
+      </c>
+      <c r="I22">
+        <v>2222200</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1.5</v>
+      </c>
+      <c r="L22">
+        <v>1.5</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22">
+        <v>11945</v>
+      </c>
+      <c r="R22">
+        <v>22339</v>
+      </c>
+      <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22">
+        <v>16</v>
+      </c>
+      <c r="U22">
         <v>15.10000038146973</v>
       </c>
-      <c r="V21">
+      <c r="V22">
         <v>-5.619999885559082</v>
       </c>
-      <c r="W21">
+      <c r="W22">
         <v>24.20000076293945</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1_Verification_Reports/K2_r01_05/EPS1_5C1_20231208_1517_result.xlsx
+++ b/1_Verification_Reports/K2_r01_05/EPS1_5C1_20231208_1517_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\AOP_ML\1_Verification_Reports\K2_r01_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64847B3C-CAF7-4CE2-B4B9-6EDFE2A215CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE69AAB-CD0E-4AC8-94E2-1E4125CA2EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Intensity" sheetId="1" r:id="rId1"/>
     <sheet name="Temperature" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="44">
   <si>
     <t>Num</t>
   </si>
@@ -150,6 +163,9 @@
   </si>
   <si>
     <t>SSId: 3809 &amp; S/N: 82960559</t>
+  </si>
+  <si>
+    <t>SSId: 3810 &amp; S/N: 82960579</t>
   </si>
 </sst>
 </file>
@@ -680,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,15 +2710,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q1" s="16" t="s">
         <v>41</v>
       </c>
@@ -2721,8 +2741,17 @@
       <c r="AC1" s="16"/>
       <c r="AD1" s="16"/>
       <c r="AE1" s="16"/>
+      <c r="AG1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2813,8 +2842,29 @@
       <c r="AE2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>257</v>
       </c>
@@ -2885,7 +2935,7 @@
         <v>24.10000038146973</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>258</v>
       </c>
@@ -2956,7 +3006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>259</v>
       </c>
@@ -3027,7 +3077,7 @@
         <v>23.89999961853027</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>260</v>
       </c>
@@ -3098,7 +3148,7 @@
         <v>23.79999923706055</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>261</v>
       </c>
@@ -3169,7 +3219,7 @@
         <v>23.89999961853027</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>262</v>
       </c>
@@ -3260,8 +3310,29 @@
       <c r="AE8">
         <v>23.79999923706055</v>
       </c>
+      <c r="AG8">
+        <v>11865</v>
+      </c>
+      <c r="AH8">
+        <v>26764</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8">
+        <v>16</v>
+      </c>
+      <c r="AK8">
+        <v>16.5</v>
+      </c>
+      <c r="AL8">
+        <v>3.130000114440918</v>
+      </c>
+      <c r="AM8">
+        <v>23.89999961853027</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>263</v>
       </c>
@@ -3352,8 +3423,29 @@
       <c r="AE9">
         <v>23.39999961853027</v>
       </c>
+      <c r="AG9">
+        <v>11901</v>
+      </c>
+      <c r="AH9">
+        <v>26766</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9">
+        <v>16</v>
+      </c>
+      <c r="AK9">
+        <v>14.60000038146973</v>
+      </c>
+      <c r="AL9">
+        <v>-8.75</v>
+      </c>
+      <c r="AM9">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>264</v>
       </c>
@@ -3424,7 +3516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>265</v>
       </c>
@@ -3495,7 +3587,7 @@
         <v>23.89999961853027</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>266</v>
       </c>
@@ -3566,7 +3658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>267</v>
       </c>
@@ -3637,7 +3729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>268</v>
       </c>
@@ -3708,7 +3800,7 @@
         <v>24.10000038146973</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>269</v>
       </c>
@@ -3779,7 +3871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>270</v>
       </c>
@@ -3870,8 +3962,29 @@
       <c r="AE16">
         <v>23.20000076293945</v>
       </c>
+      <c r="AG16">
+        <v>11942</v>
+      </c>
+      <c r="AH16">
+        <v>26767</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ16">
+        <v>16</v>
+      </c>
+      <c r="AK16">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="AL16">
+        <v>-17.5</v>
+      </c>
+      <c r="AM16">
+        <v>23.79999923706055</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>271</v>
       </c>
@@ -3942,7 +4055,7 @@
         <v>24.10000038146973</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>272</v>
       </c>
@@ -4013,7 +4126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>273</v>
       </c>
@@ -4084,7 +4197,7 @@
         <v>24.20000076293945</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>274</v>
       </c>
@@ -4175,8 +4288,29 @@
       <c r="AE20">
         <v>23.10000038146973</v>
       </c>
+      <c r="AG20">
+        <v>11943</v>
+      </c>
+      <c r="AH20">
+        <v>26768</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ20">
+        <v>16</v>
+      </c>
+      <c r="AK20">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="AL20">
+        <v>-1.25</v>
+      </c>
+      <c r="AM20">
+        <v>23.70000076293945</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>275</v>
       </c>
@@ -4247,7 +4381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>276</v>
       </c>
@@ -4319,9 +4453,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
